--- a/municipal/სასტუმროები/სტუმრები/აჭარა ა.რ/ხულო.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/აჭარა ა.რ/ხულო.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\აჭარა ა.რ. +\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\აჭარა ა.რ. +\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="ხულო" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ხულო!$A$1:$F$88</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="17">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -68,14 +71,65 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ხულოს მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ხულოს მუნიციპალიტეტში</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +210,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,7 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -303,14 +371,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -333,14 +395,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,8 +416,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -633,31 +704,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="24" customWidth="1"/>
-    <col min="2" max="4" width="20.5703125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="22" customWidth="1"/>
+    <col min="2" max="4" width="20.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="23" customWidth="1"/>
     <col min="7" max="61" width="9.140625" style="19"/>
-    <col min="62" max="16384" width="9.140625" style="24"/>
+    <col min="62" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+    <row r="1" spans="1:61" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -714,7 +785,7 @@
       <c r="BH1" s="2"/>
       <c r="BI1" s="2"/>
     </row>
-    <row r="2" spans="1:61" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" s="26" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -738,48 +809,48 @@
       <c r="S2" s="39"/>
       <c r="T2" s="39"/>
       <c r="U2" s="39"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-    </row>
-    <row r="3" spans="1:61" s="29" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+    </row>
+    <row r="3" spans="1:61" s="27" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -854,73 +925,73 @@
       <c r="BH3" s="9"/>
       <c r="BI3" s="8"/>
     </row>
-    <row r="4" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41">
+    <row r="4" spans="1:61" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37">
         <v>2010</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="27"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="27"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
-      <c r="T4" s="27"/>
+      <c r="T4" s="25"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
-      <c r="Y4" s="27"/>
+      <c r="Y4" s="25"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
-      <c r="AD4" s="27"/>
+      <c r="AD4" s="25"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
-      <c r="AI4" s="27"/>
+      <c r="AI4" s="25"/>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
-      <c r="AN4" s="27"/>
+      <c r="AN4" s="25"/>
       <c r="AO4" s="10"/>
       <c r="AP4" s="10"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
-      <c r="AS4" s="27"/>
+      <c r="AS4" s="25"/>
       <c r="AT4" s="10"/>
       <c r="AU4" s="10"/>
       <c r="AV4" s="10"/>
       <c r="AW4" s="10"/>
-      <c r="AX4" s="27"/>
+      <c r="AX4" s="25"/>
       <c r="AY4" s="10"/>
       <c r="AZ4" s="10"/>
       <c r="BA4" s="10"/>
       <c r="BB4" s="10"/>
-      <c r="BC4" s="27"/>
+      <c r="BC4" s="25"/>
       <c r="BD4" s="10"/>
       <c r="BE4" s="10"/>
       <c r="BF4" s="10"/>
       <c r="BG4" s="10"/>
-      <c r="BH4" s="27"/>
+      <c r="BH4" s="25"/>
       <c r="BI4" s="10"/>
     </row>
-    <row r="5" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="12">
@@ -929,13 +1000,13 @@
       <c r="C5" s="12">
         <v>319</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="12"/>
@@ -994,7 +1065,7 @@
       <c r="BH5" s="12"/>
       <c r="BI5" s="12"/>
     </row>
-    <row r="6" spans="1:61" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1004,13 +1075,13 @@
       <c r="C6" s="14">
         <v>319</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="D6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="14"/>
@@ -1069,23 +1140,23 @@
       <c r="BH6" s="14"/>
       <c r="BI6" s="14"/>
     </row>
-    <row r="7" spans="1:61" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="B7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="14"/>
@@ -1144,23 +1215,23 @@
       <c r="BH7" s="14"/>
       <c r="BI7" s="14"/>
     </row>
-    <row r="8" spans="1:61" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="B8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="14"/>
@@ -1219,23 +1290,23 @@
       <c r="BH8" s="14"/>
       <c r="BI8" s="14"/>
     </row>
-    <row r="9" spans="1:61" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="B9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="14"/>
@@ -1294,23 +1365,23 @@
       <c r="BH9" s="14"/>
       <c r="BI9" s="14"/>
     </row>
-    <row r="10" spans="1:61" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="14"/>
@@ -1369,15 +1440,15 @@
       <c r="BH10" s="14"/>
       <c r="BI10" s="14"/>
     </row>
-    <row r="11" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+    <row r="11" spans="1:61" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38">
         <v>2011</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1435,22 +1506,22 @@
       <c r="BI11" s="14"/>
     </row>
     <row r="12" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="B12" s="34">
+        <v>250</v>
+      </c>
+      <c r="C12" s="34">
+        <v>250</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1458,19 +1529,19 @@
       <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="B13" s="34">
+        <v>250</v>
+      </c>
+      <c r="C13" s="34">
+        <v>250</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1478,19 +1549,19 @@
       <c r="A14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="20" t="s">
+      <c r="B14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1498,19 +1569,19 @@
       <c r="A15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="B15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1518,19 +1589,19 @@
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="B16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1538,104 +1609,104 @@
       <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="B17" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38">
         <v>2012</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="21"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="21"/>
-      <c r="AQ18" s="21"/>
-      <c r="AR18" s="21"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
-      <c r="BB18" s="21"/>
-      <c r="BC18" s="21"/>
-      <c r="BD18" s="21"/>
-      <c r="BE18" s="21"/>
-      <c r="BF18" s="21"/>
-      <c r="BG18" s="21"/>
-      <c r="BH18" s="21"/>
-      <c r="BI18" s="21"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="20"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
+      <c r="BG18" s="20"/>
+      <c r="BH18" s="20"/>
+      <c r="BI18" s="20"/>
     </row>
     <row r="19" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>190</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>150</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <v>40</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1652,10 +1723,10 @@
       <c r="D20" s="14">
         <v>40</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1669,13 +1740,13 @@
       <c r="C21" s="14">
         <v>8</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="D21" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1689,13 +1760,13 @@
       <c r="C22" s="14">
         <v>2</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="D22" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1709,13 +1780,13 @@
       <c r="C23" s="14">
         <v>4</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="D23" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1729,98 +1800,98 @@
       <c r="C24" s="17">
         <v>2</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="D24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="38">
         <v>2013</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="21"/>
-      <c r="AO25" s="21"/>
-      <c r="AP25" s="21"/>
-      <c r="AQ25" s="21"/>
-      <c r="AR25" s="21"/>
-      <c r="AS25" s="21"/>
-      <c r="AT25" s="21"/>
-      <c r="AU25" s="21"/>
-      <c r="AV25" s="21"/>
-      <c r="AW25" s="21"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21"/>
-      <c r="BF25" s="21"/>
-      <c r="BG25" s="21"/>
-      <c r="BH25" s="21"/>
-      <c r="BI25" s="21"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="20"/>
+      <c r="BH25" s="20"/>
+      <c r="BI25" s="20"/>
     </row>
     <row r="26" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <v>448</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="23" t="s">
+      <c r="C26" s="34">
+        <v>448</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1831,16 +1902,16 @@
       <c r="B27" s="14">
         <v>448</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="14" t="s">
+      <c r="C27" s="34">
+        <v>448</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1848,19 +1919,19 @@
       <c r="A28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="14" t="s">
+      <c r="B28" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1868,19 +1939,19 @@
       <c r="A29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="14" t="s">
+      <c r="B29" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1888,19 +1959,19 @@
       <c r="A30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="B30" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1908,104 +1979,104 @@
       <c r="A31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36">
+      <c r="B31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38">
         <v>2014</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="21"/>
-      <c r="AM32" s="21"/>
-      <c r="AN32" s="21"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="21"/>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21"/>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="21"/>
-      <c r="BG32" s="21"/>
-      <c r="BH32" s="21"/>
-      <c r="BI32" s="21"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="20"/>
+      <c r="AR32" s="20"/>
+      <c r="AS32" s="20"/>
+      <c r="AT32" s="20"/>
+      <c r="AU32" s="20"/>
+      <c r="AV32" s="20"/>
+      <c r="AW32" s="20"/>
+      <c r="AX32" s="20"/>
+      <c r="AY32" s="20"/>
+      <c r="AZ32" s="20"/>
+      <c r="BA32" s="20"/>
+      <c r="BB32" s="20"/>
+      <c r="BC32" s="20"/>
+      <c r="BD32" s="20"/>
+      <c r="BE32" s="20"/>
+      <c r="BF32" s="20"/>
+      <c r="BG32" s="20"/>
+      <c r="BH32" s="20"/>
+      <c r="BI32" s="20"/>
     </row>
     <row r="33" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>395</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="12">
         <v>292</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="12">
         <v>103</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="23" t="s">
+      <c r="E33" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2022,10 +2093,10 @@
       <c r="D34" s="14">
         <v>103</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2039,13 +2110,13 @@
       <c r="C35" s="14">
         <v>32</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="14" t="s">
+      <c r="D35" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2059,13 +2130,13 @@
       <c r="C36" s="14">
         <v>21</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="14" t="s">
+      <c r="D36" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2079,13 +2150,13 @@
       <c r="C37" s="14">
         <v>11</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="14" t="s">
+      <c r="D37" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2093,161 +2164,161 @@
       <c r="A38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+      <c r="B38" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="38">
         <v>2015</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
-      <c r="AI39" s="21"/>
-      <c r="AJ39" s="21"/>
-      <c r="AK39" s="21"/>
-      <c r="AL39" s="21"/>
-      <c r="AM39" s="21"/>
-      <c r="AN39" s="21"/>
-      <c r="AO39" s="21"/>
-      <c r="AP39" s="21"/>
-      <c r="AQ39" s="21"/>
-      <c r="AR39" s="21"/>
-      <c r="AS39" s="21"/>
-      <c r="AT39" s="21"/>
-      <c r="AU39" s="21"/>
-      <c r="AV39" s="21"/>
-      <c r="AW39" s="21"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="21"/>
-      <c r="BA39" s="21"/>
-      <c r="BB39" s="21"/>
-      <c r="BC39" s="21"/>
-      <c r="BD39" s="21"/>
-      <c r="BE39" s="21"/>
-      <c r="BF39" s="21"/>
-      <c r="BG39" s="21"/>
-      <c r="BH39" s="21"/>
-      <c r="BI39" s="21"/>
-    </row>
-    <row r="40" spans="1:61" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="20"/>
+      <c r="AR39" s="20"/>
+      <c r="AS39" s="20"/>
+      <c r="AT39" s="20"/>
+      <c r="AU39" s="20"/>
+      <c r="AV39" s="20"/>
+      <c r="AW39" s="20"/>
+      <c r="AX39" s="20"/>
+      <c r="AY39" s="20"/>
+      <c r="AZ39" s="20"/>
+      <c r="BA39" s="20"/>
+      <c r="BB39" s="20"/>
+      <c r="BC39" s="20"/>
+      <c r="BD39" s="20"/>
+      <c r="BE39" s="20"/>
+      <c r="BF39" s="20"/>
+      <c r="BG39" s="20"/>
+      <c r="BH39" s="20"/>
+      <c r="BI39" s="20"/>
+    </row>
+    <row r="40" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="12">
         <v>533</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="12">
         <v>533</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="26"/>
-      <c r="AN40" s="26"/>
-      <c r="AO40" s="26"/>
-      <c r="AP40" s="26"/>
-      <c r="AQ40" s="26"/>
-      <c r="AR40" s="26"/>
-      <c r="AS40" s="26"/>
-      <c r="AT40" s="26"/>
-      <c r="AU40" s="26"/>
-      <c r="AV40" s="26"/>
-      <c r="AW40" s="26"/>
-      <c r="AX40" s="26"/>
-      <c r="AY40" s="26"/>
-      <c r="AZ40" s="26"/>
-      <c r="BA40" s="26"/>
-      <c r="BB40" s="26"/>
-      <c r="BC40" s="26"/>
-      <c r="BD40" s="26"/>
-      <c r="BE40" s="26"/>
-      <c r="BF40" s="26"/>
-      <c r="BG40" s="26"/>
-      <c r="BH40" s="26"/>
-      <c r="BI40" s="26"/>
+      <c r="D40" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="24"/>
+      <c r="AH40" s="24"/>
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="24"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="24"/>
+      <c r="AP40" s="24"/>
+      <c r="AQ40" s="24"/>
+      <c r="AR40" s="24"/>
+      <c r="AS40" s="24"/>
+      <c r="AT40" s="24"/>
+      <c r="AU40" s="24"/>
+      <c r="AV40" s="24"/>
+      <c r="AW40" s="24"/>
+      <c r="AX40" s="24"/>
+      <c r="AY40" s="24"/>
+      <c r="AZ40" s="24"/>
+      <c r="BA40" s="24"/>
+      <c r="BB40" s="24"/>
+      <c r="BC40" s="24"/>
+      <c r="BD40" s="24"/>
+      <c r="BE40" s="24"/>
+      <c r="BF40" s="24"/>
+      <c r="BG40" s="24"/>
+      <c r="BH40" s="24"/>
+      <c r="BI40" s="24"/>
     </row>
     <row r="41" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
@@ -2259,13 +2330,13 @@
       <c r="C41" s="14">
         <v>285</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="14" t="s">
+      <c r="D41" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2279,13 +2350,13 @@
       <c r="C42" s="14">
         <v>248</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="14" t="s">
+      <c r="D42" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2299,13 +2370,13 @@
       <c r="C43" s="14">
         <v>56</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="14" t="s">
+      <c r="D43" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2319,13 +2390,13 @@
       <c r="C44" s="14">
         <v>192</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="14" t="s">
+      <c r="D44" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2333,104 +2404,104 @@
       <c r="A45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="17">
-        <v>2702</v>
-      </c>
-      <c r="C45" s="17">
-        <v>1511</v>
-      </c>
-      <c r="D45" s="17">
-        <v>1191</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+      <c r="B45" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="38">
         <v>2016</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="21"/>
-      <c r="AN46" s="21"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="21"/>
-      <c r="AQ46" s="21"/>
-      <c r="AR46" s="21"/>
-      <c r="AS46" s="21"/>
-      <c r="AT46" s="21"/>
-      <c r="AU46" s="21"/>
-      <c r="AV46" s="21"/>
-      <c r="AW46" s="21"/>
-      <c r="AX46" s="21"/>
-      <c r="AY46" s="21"/>
-      <c r="AZ46" s="21"/>
-      <c r="BA46" s="21"/>
-      <c r="BB46" s="21"/>
-      <c r="BC46" s="21"/>
-      <c r="BD46" s="21"/>
-      <c r="BE46" s="21"/>
-      <c r="BF46" s="21"/>
-      <c r="BG46" s="21"/>
-      <c r="BH46" s="21"/>
-      <c r="BI46" s="21"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="20"/>
+      <c r="AP46" s="20"/>
+      <c r="AQ46" s="20"/>
+      <c r="AR46" s="20"/>
+      <c r="AS46" s="20"/>
+      <c r="AT46" s="20"/>
+      <c r="AU46" s="20"/>
+      <c r="AV46" s="20"/>
+      <c r="AW46" s="20"/>
+      <c r="AX46" s="20"/>
+      <c r="AY46" s="20"/>
+      <c r="AZ46" s="20"/>
+      <c r="BA46" s="20"/>
+      <c r="BB46" s="20"/>
+      <c r="BC46" s="20"/>
+      <c r="BD46" s="20"/>
+      <c r="BE46" s="20"/>
+      <c r="BF46" s="20"/>
+      <c r="BG46" s="20"/>
+      <c r="BH46" s="20"/>
+      <c r="BI46" s="20"/>
     </row>
     <row r="47" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="12">
         <v>3773</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="12">
         <v>3663</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="12">
         <v>110</v>
       </c>
-      <c r="E47" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="23" t="s">
+      <c r="E47" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2447,10 +2518,10 @@
       <c r="D48" s="14">
         <v>110</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="14" t="s">
+      <c r="E48" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2464,13 +2535,13 @@
       <c r="C49" s="14">
         <v>1842</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="14" t="s">
+      <c r="D49" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2484,13 +2555,13 @@
       <c r="C50" s="14">
         <v>479</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="14" t="s">
+      <c r="D50" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2504,13 +2575,13 @@
       <c r="C51" s="14">
         <v>1311</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="14" t="s">
+      <c r="D51" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2524,98 +2595,98 @@
       <c r="C52" s="17">
         <v>52</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36">
+      <c r="D52" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="38">
         <v>2017</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="21"/>
-      <c r="AG53" s="21"/>
-      <c r="AH53" s="21"/>
-      <c r="AI53" s="21"/>
-      <c r="AJ53" s="21"/>
-      <c r="AK53" s="21"/>
-      <c r="AL53" s="21"/>
-      <c r="AM53" s="21"/>
-      <c r="AN53" s="21"/>
-      <c r="AO53" s="21"/>
-      <c r="AP53" s="21"/>
-      <c r="AQ53" s="21"/>
-      <c r="AR53" s="21"/>
-      <c r="AS53" s="21"/>
-      <c r="AT53" s="21"/>
-      <c r="AU53" s="21"/>
-      <c r="AV53" s="21"/>
-      <c r="AW53" s="21"/>
-      <c r="AX53" s="21"/>
-      <c r="AY53" s="21"/>
-      <c r="AZ53" s="21"/>
-      <c r="BA53" s="21"/>
-      <c r="BB53" s="21"/>
-      <c r="BC53" s="21"/>
-      <c r="BD53" s="21"/>
-      <c r="BE53" s="21"/>
-      <c r="BF53" s="21"/>
-      <c r="BG53" s="21"/>
-      <c r="BH53" s="21"/>
-      <c r="BI53" s="21"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="20"/>
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="20"/>
+      <c r="AL53" s="20"/>
+      <c r="AM53" s="20"/>
+      <c r="AN53" s="20"/>
+      <c r="AO53" s="20"/>
+      <c r="AP53" s="20"/>
+      <c r="AQ53" s="20"/>
+      <c r="AR53" s="20"/>
+      <c r="AS53" s="20"/>
+      <c r="AT53" s="20"/>
+      <c r="AU53" s="20"/>
+      <c r="AV53" s="20"/>
+      <c r="AW53" s="20"/>
+      <c r="AX53" s="20"/>
+      <c r="AY53" s="20"/>
+      <c r="AZ53" s="20"/>
+      <c r="BA53" s="20"/>
+      <c r="BB53" s="20"/>
+      <c r="BC53" s="20"/>
+      <c r="BD53" s="20"/>
+      <c r="BE53" s="20"/>
+      <c r="BF53" s="20"/>
+      <c r="BG53" s="20"/>
+      <c r="BH53" s="20"/>
+      <c r="BI53" s="20"/>
     </row>
     <row r="54" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="12">
         <v>3339</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="12">
         <v>2809</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="12">
         <v>530</v>
       </c>
-      <c r="E54" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="11" t="s">
+      <c r="E54" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2632,10 +2703,10 @@
       <c r="D55" s="14">
         <v>400</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="12" t="s">
+      <c r="E55" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2652,10 +2723,10 @@
       <c r="D56" s="14">
         <v>130</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="12" t="s">
+      <c r="E56" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2669,13 +2740,13 @@
       <c r="C57" s="14">
         <v>407</v>
       </c>
-      <c r="D57" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="12" t="s">
+      <c r="D57" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2689,13 +2760,13 @@
       <c r="C58" s="14">
         <v>769</v>
       </c>
-      <c r="D58" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="D58" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2712,80 +2783,80 @@
       <c r="D59" s="17">
         <v>130</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="36">
+      <c r="E59" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="38">
         <v>2018</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="21"/>
-      <c r="AG60" s="21"/>
-      <c r="AH60" s="21"/>
-      <c r="AI60" s="21"/>
-      <c r="AJ60" s="21"/>
-      <c r="AK60" s="21"/>
-      <c r="AL60" s="21"/>
-      <c r="AM60" s="21"/>
-      <c r="AN60" s="21"/>
-      <c r="AO60" s="21"/>
-      <c r="AP60" s="21"/>
-      <c r="AQ60" s="21"/>
-      <c r="AR60" s="21"/>
-      <c r="AS60" s="21"/>
-      <c r="AT60" s="21"/>
-      <c r="AU60" s="21"/>
-      <c r="AV60" s="21"/>
-      <c r="AW60" s="21"/>
-      <c r="AX60" s="21"/>
-      <c r="AY60" s="21"/>
-      <c r="AZ60" s="21"/>
-      <c r="BA60" s="21"/>
-      <c r="BB60" s="21"/>
-      <c r="BC60" s="21"/>
-      <c r="BD60" s="21"/>
-      <c r="BE60" s="21"/>
-      <c r="BF60" s="21"/>
-      <c r="BG60" s="21"/>
-      <c r="BH60" s="21"/>
-      <c r="BI60" s="21"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" s="20"/>
+      <c r="AG60" s="20"/>
+      <c r="AH60" s="20"/>
+      <c r="AI60" s="20"/>
+      <c r="AJ60" s="20"/>
+      <c r="AK60" s="20"/>
+      <c r="AL60" s="20"/>
+      <c r="AM60" s="20"/>
+      <c r="AN60" s="20"/>
+      <c r="AO60" s="20"/>
+      <c r="AP60" s="20"/>
+      <c r="AQ60" s="20"/>
+      <c r="AR60" s="20"/>
+      <c r="AS60" s="20"/>
+      <c r="AT60" s="20"/>
+      <c r="AU60" s="20"/>
+      <c r="AV60" s="20"/>
+      <c r="AW60" s="20"/>
+      <c r="AX60" s="20"/>
+      <c r="AY60" s="20"/>
+      <c r="AZ60" s="20"/>
+      <c r="BA60" s="20"/>
+      <c r="BB60" s="20"/>
+      <c r="BC60" s="20"/>
+      <c r="BD60" s="20"/>
+      <c r="BE60" s="20"/>
+      <c r="BF60" s="20"/>
+      <c r="BG60" s="20"/>
+      <c r="BH60" s="20"/>
+      <c r="BI60" s="20"/>
     </row>
     <row r="61" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="11">
@@ -2834,13 +2905,13 @@
       <c r="C63" s="14">
         <v>1715</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="12" t="s">
+      <c r="D63" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2854,13 +2925,13 @@
       <c r="C64" s="14">
         <v>649</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="12" t="s">
+      <c r="D64" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2874,13 +2945,13 @@
       <c r="C65" s="14">
         <v>890</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="12" t="s">
+      <c r="D65" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2894,98 +2965,98 @@
       <c r="C66" s="17">
         <v>176</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="36">
+      <c r="D66" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="38">
         <v>2019</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
-      <c r="AB67" s="21"/>
-      <c r="AC67" s="21"/>
-      <c r="AD67" s="21"/>
-      <c r="AE67" s="21"/>
-      <c r="AF67" s="21"/>
-      <c r="AG67" s="21"/>
-      <c r="AH67" s="21"/>
-      <c r="AI67" s="21"/>
-      <c r="AJ67" s="21"/>
-      <c r="AK67" s="21"/>
-      <c r="AL67" s="21"/>
-      <c r="AM67" s="21"/>
-      <c r="AN67" s="21"/>
-      <c r="AO67" s="21"/>
-      <c r="AP67" s="21"/>
-      <c r="AQ67" s="21"/>
-      <c r="AR67" s="21"/>
-      <c r="AS67" s="21"/>
-      <c r="AT67" s="21"/>
-      <c r="AU67" s="21"/>
-      <c r="AV67" s="21"/>
-      <c r="AW67" s="21"/>
-      <c r="AX67" s="21"/>
-      <c r="AY67" s="21"/>
-      <c r="AZ67" s="21"/>
-      <c r="BA67" s="21"/>
-      <c r="BB67" s="21"/>
-      <c r="BC67" s="21"/>
-      <c r="BD67" s="21"/>
-      <c r="BE67" s="21"/>
-      <c r="BF67" s="21"/>
-      <c r="BG67" s="21"/>
-      <c r="BH67" s="21"/>
-      <c r="BI67" s="21"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="20"/>
+      <c r="AG67" s="20"/>
+      <c r="AH67" s="20"/>
+      <c r="AI67" s="20"/>
+      <c r="AJ67" s="20"/>
+      <c r="AK67" s="20"/>
+      <c r="AL67" s="20"/>
+      <c r="AM67" s="20"/>
+      <c r="AN67" s="20"/>
+      <c r="AO67" s="20"/>
+      <c r="AP67" s="20"/>
+      <c r="AQ67" s="20"/>
+      <c r="AR67" s="20"/>
+      <c r="AS67" s="20"/>
+      <c r="AT67" s="20"/>
+      <c r="AU67" s="20"/>
+      <c r="AV67" s="20"/>
+      <c r="AW67" s="20"/>
+      <c r="AX67" s="20"/>
+      <c r="AY67" s="20"/>
+      <c r="AZ67" s="20"/>
+      <c r="BA67" s="20"/>
+      <c r="BB67" s="20"/>
+      <c r="BC67" s="20"/>
+      <c r="BD67" s="20"/>
+      <c r="BE67" s="20"/>
+      <c r="BF67" s="20"/>
+      <c r="BG67" s="20"/>
+      <c r="BH67" s="20"/>
+      <c r="BI67" s="20"/>
     </row>
     <row r="68" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="12">
         <v>858</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="12">
         <v>742</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="12">
         <v>66</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="11">
+      <c r="E68" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="12">
         <v>50</v>
       </c>
     </row>
@@ -3002,7 +3073,7 @@
       <c r="D69" s="14">
         <v>66</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="34" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="14">
@@ -3013,16 +3084,16 @@
       <c r="A70" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="14" t="s">
+      <c r="B70" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="34" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="12" t="s">
@@ -3033,16 +3104,16 @@
       <c r="A71" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="14" t="s">
+      <c r="B71" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="34" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="12" t="s">
@@ -3053,16 +3124,16 @@
       <c r="A72" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="14" t="s">
+      <c r="B72" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="34" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="12" t="s">
@@ -3073,104 +3144,104 @@
       <c r="A73" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="17" t="s">
+      <c r="B73" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="36">
+    <row r="74" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="38">
         <v>2020</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="21"/>
-      <c r="AB74" s="21"/>
-      <c r="AC74" s="21"/>
-      <c r="AD74" s="21"/>
-      <c r="AE74" s="21"/>
-      <c r="AF74" s="21"/>
-      <c r="AG74" s="21"/>
-      <c r="AH74" s="21"/>
-      <c r="AI74" s="21"/>
-      <c r="AJ74" s="21"/>
-      <c r="AK74" s="21"/>
-      <c r="AL74" s="21"/>
-      <c r="AM74" s="21"/>
-      <c r="AN74" s="21"/>
-      <c r="AO74" s="21"/>
-      <c r="AP74" s="21"/>
-      <c r="AQ74" s="21"/>
-      <c r="AR74" s="21"/>
-      <c r="AS74" s="21"/>
-      <c r="AT74" s="21"/>
-      <c r="AU74" s="21"/>
-      <c r="AV74" s="21"/>
-      <c r="AW74" s="21"/>
-      <c r="AX74" s="21"/>
-      <c r="AY74" s="21"/>
-      <c r="AZ74" s="21"/>
-      <c r="BA74" s="21"/>
-      <c r="BB74" s="21"/>
-      <c r="BC74" s="21"/>
-      <c r="BD74" s="21"/>
-      <c r="BE74" s="21"/>
-      <c r="BF74" s="21"/>
-      <c r="BG74" s="21"/>
-      <c r="BH74" s="21"/>
-      <c r="BI74" s="21"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="20"/>
+      <c r="AB74" s="20"/>
+      <c r="AC74" s="20"/>
+      <c r="AD74" s="20"/>
+      <c r="AE74" s="20"/>
+      <c r="AF74" s="20"/>
+      <c r="AG74" s="20"/>
+      <c r="AH74" s="20"/>
+      <c r="AI74" s="20"/>
+      <c r="AJ74" s="20"/>
+      <c r="AK74" s="20"/>
+      <c r="AL74" s="20"/>
+      <c r="AM74" s="20"/>
+      <c r="AN74" s="20"/>
+      <c r="AO74" s="20"/>
+      <c r="AP74" s="20"/>
+      <c r="AQ74" s="20"/>
+      <c r="AR74" s="20"/>
+      <c r="AS74" s="20"/>
+      <c r="AT74" s="20"/>
+      <c r="AU74" s="20"/>
+      <c r="AV74" s="20"/>
+      <c r="AW74" s="20"/>
+      <c r="AX74" s="20"/>
+      <c r="AY74" s="20"/>
+      <c r="AZ74" s="20"/>
+      <c r="BA74" s="20"/>
+      <c r="BB74" s="20"/>
+      <c r="BC74" s="20"/>
+      <c r="BD74" s="20"/>
+      <c r="BE74" s="20"/>
+      <c r="BF74" s="20"/>
+      <c r="BG74" s="20"/>
+      <c r="BH74" s="20"/>
+      <c r="BI74" s="20"/>
     </row>
     <row r="75" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="12">
         <v>434</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="12">
         <v>385</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="12">
         <v>49</v>
       </c>
-      <c r="E75" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="23" t="s">
+      <c r="E75" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3187,10 +3258,10 @@
       <c r="D76" s="14">
         <v>49</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="14" t="s">
+      <c r="E76" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3198,19 +3269,19 @@
       <c r="A77" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="14" t="s">
+      <c r="B77" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3218,19 +3289,19 @@
       <c r="A78" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="14" t="s">
+      <c r="B78" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3238,19 +3309,19 @@
       <c r="A79" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="14" t="s">
+      <c r="B79" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3258,89 +3329,89 @@
       <c r="A80" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:61" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="36">
+      <c r="B80" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="38">
         <v>2021</v>
       </c>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="21"/>
-      <c r="X81" s="21"/>
-      <c r="Y81" s="21"/>
-      <c r="Z81" s="21"/>
-      <c r="AA81" s="21"/>
-      <c r="AB81" s="21"/>
-      <c r="AC81" s="21"/>
-      <c r="AD81" s="21"/>
-      <c r="AE81" s="21"/>
-      <c r="AF81" s="21"/>
-      <c r="AG81" s="21"/>
-      <c r="AH81" s="21"/>
-      <c r="AI81" s="21"/>
-      <c r="AJ81" s="21"/>
-      <c r="AK81" s="21"/>
-      <c r="AL81" s="21"/>
-      <c r="AM81" s="21"/>
-      <c r="AN81" s="21"/>
-      <c r="AO81" s="21"/>
-      <c r="AP81" s="21"/>
-      <c r="AQ81" s="21"/>
-      <c r="AR81" s="21"/>
-      <c r="AS81" s="21"/>
-      <c r="AT81" s="21"/>
-      <c r="AU81" s="21"/>
-      <c r="AV81" s="21"/>
-      <c r="AW81" s="21"/>
-      <c r="AX81" s="21"/>
-      <c r="AY81" s="21"/>
-      <c r="AZ81" s="21"/>
-      <c r="BA81" s="21"/>
-      <c r="BB81" s="21"/>
-      <c r="BC81" s="21"/>
-      <c r="BD81" s="21"/>
-      <c r="BE81" s="21"/>
-      <c r="BF81" s="21"/>
-      <c r="BG81" s="21"/>
-      <c r="BH81" s="21"/>
-      <c r="BI81" s="21"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="20"/>
+      <c r="AI81" s="20"/>
+      <c r="AJ81" s="20"/>
+      <c r="AK81" s="20"/>
+      <c r="AL81" s="20"/>
+      <c r="AM81" s="20"/>
+      <c r="AN81" s="20"/>
+      <c r="AO81" s="20"/>
+      <c r="AP81" s="20"/>
+      <c r="AQ81" s="20"/>
+      <c r="AR81" s="20"/>
+      <c r="AS81" s="20"/>
+      <c r="AT81" s="20"/>
+      <c r="AU81" s="20"/>
+      <c r="AV81" s="20"/>
+      <c r="AW81" s="20"/>
+      <c r="AX81" s="20"/>
+      <c r="AY81" s="20"/>
+      <c r="AZ81" s="20"/>
+      <c r="BA81" s="20"/>
+      <c r="BB81" s="20"/>
+      <c r="BC81" s="20"/>
+      <c r="BD81" s="20"/>
+      <c r="BE81" s="20"/>
+      <c r="BF81" s="20"/>
+      <c r="BG81" s="20"/>
+      <c r="BH81" s="20"/>
+      <c r="BI81" s="20"/>
     </row>
     <row r="82" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="11">
@@ -3389,10 +3460,10 @@
       <c r="C84" s="14">
         <v>130</v>
       </c>
-      <c r="D84" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="14" t="s">
+      <c r="D84" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="34" t="s">
         <v>8</v>
       </c>
       <c r="F84" s="14">
@@ -3403,65 +3474,75 @@
       <c r="A85" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="14">
-        <v>131</v>
-      </c>
-      <c r="C85" s="14">
-        <v>130</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="14">
-        <v>1</v>
+      <c r="B85" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>8</v>
+      <c r="B86" s="14">
+        <v>131</v>
+      </c>
+      <c r="C86" s="14">
+        <v>130</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="34">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>8</v>
-      </c>
+      <c r="B87" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A74:F74"/>
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A39:F39"/>
@@ -3469,6 +3550,11 @@
     <mergeCell ref="A53:F53"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="A74:F74"/>
     <mergeCell ref="AZ2:BD2"/>
     <mergeCell ref="BE2:BI2"/>
     <mergeCell ref="A4:F4"/>
@@ -3476,10 +3562,6 @@
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="AP2:AT2"/>
     <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="B2:F2"/>
